--- a/Test Report/Report.xlsx
+++ b/Test Report/Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SiddharthM\eclipse\FCGA\Test Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\New folder\FCGA-Version2\Test Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC070FEF-6B4E-452D-9B5E-17A2C8427515}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>TC ID</t>
   </si>
@@ -51,12 +52,24 @@
   </si>
   <si>
     <t>End Time</t>
+  </si>
+  <si>
+    <t>Class Description</t>
+  </si>
+  <si>
+    <t>Referral Reason</t>
+  </si>
+  <si>
+    <t>Class Code</t>
+  </si>
+  <si>
+    <t>Industial Question Count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,26 +410,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="21" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,25 +442,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -455,8 +482,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -466,8 +497,12 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -477,8 +512,12 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -488,8 +527,12 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -499,8 +542,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -510,8 +557,12 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -521,8 +572,12 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -532,8 +587,12 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -543,8 +602,12 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -554,8 +617,12 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -565,8 +632,12 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -576,8 +647,12 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -587,8 +662,12 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -598,8 +677,12 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -609,8 +692,12 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -620,6 +707,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Report/Report.xlsx
+++ b/Test Report/Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\New folder\FCGA-Version2\Test Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SiddharthM\git\FCGA-Version2\Test Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC070FEF-6B4E-452D-9B5E-17A2C8427515}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>TC ID</t>
   </si>
@@ -64,12 +63,18 @@
   </si>
   <si>
     <t>Industial Question Count</t>
+  </si>
+  <si>
+    <t>Insured Address</t>
+  </si>
+  <si>
+    <t>Smarty Street</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,11 +415,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,15 +428,15 @@
     <col min="3" max="3" width="21" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="25.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="10" width="25.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="24.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,22 +462,28 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -486,8 +497,10 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -501,8 +514,10 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -516,8 +531,10 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -531,8 +548,10 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -546,8 +565,10 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -561,8 +582,10 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -576,8 +599,10 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -591,8 +616,10 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -606,8 +633,10 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -621,8 +650,10 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -636,8 +667,10 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -651,8 +684,10 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -666,8 +701,10 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -681,8 +718,10 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -696,8 +735,10 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -711,6 +752,8 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Report/Report.xlsx
+++ b/Test Report/Report.xlsx
@@ -1,25 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SiddharthM\git\FCGA-Version2\Test Report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -35,6 +25,27 @@
     <t>Test Scenario</t>
   </si>
   <si>
+    <t>Class Code</t>
+  </si>
+  <si>
+    <t>Class Description</t>
+  </si>
+  <si>
+    <t>Insured Name</t>
+  </si>
+  <si>
+    <t>Industial Question Count</t>
+  </si>
+  <si>
+    <t>Referral Reason</t>
+  </si>
+  <si>
+    <t>Insured Address</t>
+  </si>
+  <si>
+    <t>Smarty Street</t>
+  </si>
+  <si>
     <t>Quote No</t>
   </si>
   <si>
@@ -44,31 +55,10 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Insured Name</t>
-  </si>
-  <si>
     <t>Start Time</t>
   </si>
   <si>
     <t>End Time</t>
-  </si>
-  <si>
-    <t>Class Description</t>
-  </si>
-  <si>
-    <t>Referral Reason</t>
-  </si>
-  <si>
-    <t>Class Code</t>
-  </si>
-  <si>
-    <t>Industial Question Count</t>
-  </si>
-  <si>
-    <t>Insured Address</t>
-  </si>
-  <si>
-    <t>Smarty Street</t>
   </si>
 </sst>
 </file>
@@ -141,7 +131,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -164,39 +154,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,165 +265,183 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="10" width="25.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -447,40 +455,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -755,8 +763,1418 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>